--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
         <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q2">
-        <v>0.03431500075955556</v>
+        <v>0.02177695603422223</v>
       </c>
       <c r="R2">
-        <v>0.308835006836</v>
+        <v>0.195992604308</v>
       </c>
       <c r="S2">
-        <v>0.003271610373509394</v>
+        <v>0.002081212754432414</v>
       </c>
       <c r="T2">
-        <v>0.003271610373509394</v>
+        <v>0.002081212754432414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
         <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.171991</v>
       </c>
       <c r="O3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q3">
-        <v>2.812453684627111</v>
+        <v>2.812453684627112</v>
       </c>
       <c r="R3">
         <v>25.312083161644</v>
       </c>
       <c r="S3">
-        <v>0.2681408260519574</v>
+        <v>0.2687847865651181</v>
       </c>
       <c r="T3">
-        <v>0.2681408260519574</v>
+        <v>0.2687847865651181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
         <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>23.905536</v>
       </c>
       <c r="O4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q4">
-        <v>2.386526845269333</v>
+        <v>2.386526845269334</v>
       </c>
       <c r="R4">
         <v>21.478741607424</v>
       </c>
       <c r="S4">
-        <v>0.2275327352708159</v>
+        <v>0.2280791723767322</v>
       </c>
       <c r="T4">
-        <v>0.2275327352708159</v>
+        <v>0.2280791723767322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,7 +726,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
         <v>0.5010548283037172</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N5">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q5">
-        <v>0.03446009258966667</v>
+        <v>0.02186903408566667</v>
       </c>
       <c r="R5">
-        <v>0.310140833307</v>
+        <v>0.196821306771</v>
       </c>
       <c r="S5">
-        <v>0.003285443505550658</v>
+        <v>0.002090012607578478</v>
       </c>
       <c r="T5">
-        <v>0.003285443505550657</v>
+        <v>0.002090012607578478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,7 +788,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
         <v>0.5010548283037172</v>
@@ -806,10 +806,10 @@
         <v>28.171991</v>
       </c>
       <c r="O6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q6">
         <v>2.824345395050333</v>
@@ -818,10 +818,10 @@
         <v>25.419108555453</v>
       </c>
       <c r="S6">
-        <v>0.2692745880312152</v>
+        <v>0.2699212713596841</v>
       </c>
       <c r="T6">
-        <v>0.2692745880312151</v>
+        <v>0.2699212713596841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,7 +850,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
         <v>0.5010548283037172</v>
@@ -868,10 +868,10 @@
         <v>23.905536</v>
       </c>
       <c r="O7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q7">
         <v>2.396617637632</v>
@@ -880,10 +880,10 @@
         <v>21.569558738688</v>
       </c>
       <c r="S7">
-        <v>0.2284947967669514</v>
+        <v>0.2290435443364545</v>
       </c>
       <c r="T7">
-        <v>0.2284947967669513</v>
+        <v>0.2290435443364545</v>
       </c>
     </row>
   </sheetData>
